--- a/doc/Overzicht validatie regels NLCS++ t.b.v. MVP MS genormaliseerd.xlsx
+++ b/doc/Overzicht validatie regels NLCS++ t.b.v. MVP MS genormaliseerd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwillem6\git\nlcspp_inhoudelijke_validaties_temp\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick.krijgsman/Desktop/Files/RADS/Inhoudelijke validaties - Schematron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE907A8-B07A-45CC-A55E-5315C830FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15351B0E-4BAC-FF4C-A67E-A0D30E9614E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1305" windowWidth="25110" windowHeight="13290" xr2:uid="{94096BEC-D1FD-4E3A-8734-D951399510E2}"/>
+    <workbookView xWindow="37920" yWindow="1240" windowWidth="34560" windowHeight="21100" xr2:uid="{94096BEC-D1FD-4E3A-8734-D951399510E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Validaties bestandniveau" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Planning" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Validaties bestandniveau'!$A$1:$J$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Validaties bestandniveau'!$A$1:$I$169</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="305">
   <si>
     <t>Nr</t>
   </si>
@@ -958,18 +958,6 @@
   </si>
   <si>
     <t>IB,R</t>
-  </si>
-  <si>
-    <t>Validatie Regel</t>
-  </si>
-  <si>
-    <t>R.1</t>
-  </si>
-  <si>
-    <t>R.2</t>
-  </si>
-  <si>
-    <t>R.3</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1295,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1641,30 +1629,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643EF772-1D6D-4FBD-A286-566D9586DEDE}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="27.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="254.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="118.85546875" customWidth="1"/>
-    <col min="11" max="11" width="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="27.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="254.1640625" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="118.83203125" customWidth="1"/>
+    <col min="10" max="10" width="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1675,40 +1662,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>288</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>282</v>
+      </c>
       <c r="L1" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="N1" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1718,26 +1702,25 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="2" t="s">
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1747,26 +1730,25 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2" t="s">
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1777,26 +1759,26 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>287</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>286</v>
@@ -1804,11 +1786,8 @@
       <c r="M4" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1819,38 +1798,35 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="K5" t="s">
+        <v>291</v>
+      </c>
       <c r="L5" t="s">
-        <v>291</v>
-      </c>
-      <c r="M5" t="s">
         <v>292</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1861,26 +1837,26 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
         <v>294</v>
+      </c>
+      <c r="K6" t="s">
+        <v>283</v>
       </c>
       <c r="L6" t="s">
         <v>283</v>
@@ -1889,13 +1865,10 @@
         <v>283</v>
       </c>
       <c r="N6" t="s">
-        <v>283</v>
-      </c>
-      <c r="O6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1905,38 +1878,37 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="2" t="s">
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="13" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="13" t="s">
         <v>296</v>
       </c>
+      <c r="L7" t="s">
+        <v>297</v>
+      </c>
       <c r="M7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N7" t="s">
-        <v>283</v>
-      </c>
-      <c r="O7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1947,23 +1919,22 @@
         <v>19</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2" t="s">
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1974,23 +1945,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2" t="s">
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2001,23 +1971,22 @@
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2" t="s">
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2028,23 +1997,22 @@
         <v>25</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2" t="s">
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2055,23 +2023,22 @@
         <v>25</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2" t="s">
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2082,23 +2049,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2109,23 +2075,22 @@
         <v>19</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2136,23 +2101,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2163,23 +2127,22 @@
         <v>9</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2190,23 +2153,22 @@
         <v>9</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="2" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2217,23 +2179,22 @@
         <v>9</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="2" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2244,23 +2205,22 @@
         <v>9</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="2" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2271,23 +2231,22 @@
         <v>9</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F20" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="2" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2298,23 +2257,22 @@
         <v>9</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="2" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2325,23 +2283,22 @@
         <v>9</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F22" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="2" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2352,23 +2309,22 @@
         <v>25</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="2" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2379,25 +2335,24 @@
         <v>9</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2407,37 +2362,36 @@
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="K25" t="s">
+        <v>296</v>
+      </c>
       <c r="L25" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M25" t="s">
-        <v>300</v>
-      </c>
-      <c r="N25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2448,23 +2402,22 @@
         <v>9</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="2" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2475,23 +2428,22 @@
         <v>9</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F27" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="2" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2501,28 +2453,27 @@
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2532,26 +2483,25 @@
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="2" t="s">
+      <c r="E29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2562,23 +2512,22 @@
         <v>9</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="2" t="s">
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2588,31 +2537,30 @@
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L31" t="s">
+      <c r="K31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2623,23 +2571,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="2" t="s">
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2649,31 +2596,30 @@
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="J33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L33" t="s">
+      <c r="K33" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2683,37 +2629,36 @@
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="J34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s">
-        <v>297</v>
-      </c>
-      <c r="N34" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2723,31 +2668,30 @@
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L35" t="s">
+      <c r="K35" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2758,23 +2702,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="2" t="s">
+      <c r="E36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2784,31 +2727,30 @@
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="J37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2819,23 +2761,22 @@
         <v>19</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="2" t="s">
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2846,23 +2787,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="2" t="s">
+      <c r="E39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2873,23 +2813,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="2" t="s">
+      <c r="E40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2900,23 +2839,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="2" t="s">
+      <c r="E41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2927,23 +2865,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="2" t="s">
+      <c r="E42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2954,23 +2891,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="2" t="s">
+      <c r="E43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2981,23 +2917,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="2" t="s">
+      <c r="E44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3008,23 +2943,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="2" t="s">
+      <c r="E45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3035,23 +2969,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="2" t="s">
+      <c r="E46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3062,23 +2995,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="2" t="s">
+      <c r="E47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3089,23 +3021,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="2" t="s">
+      <c r="E48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3116,23 +3047,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="2" t="s">
+      <c r="E49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3143,23 +3073,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="2" t="s">
+      <c r="E50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3170,23 +3099,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="2" t="s">
+      <c r="E51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3197,23 +3125,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="2" t="s">
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3224,23 +3151,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="2" t="s">
+      <c r="E53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3251,23 +3177,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="2" t="s">
+      <c r="E54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3278,23 +3203,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="2" t="s">
+      <c r="E55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3305,23 +3229,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="2" t="s">
+      <c r="E56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3332,23 +3255,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="2" t="s">
+      <c r="E57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3359,23 +3281,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="2" t="s">
+      <c r="E58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3386,23 +3307,22 @@
         <v>22</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="2" t="s">
+      <c r="E59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3413,23 +3333,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="2" t="s">
+      <c r="E60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3440,23 +3359,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="2" t="s">
+      <c r="E61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3467,23 +3385,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="2" t="s">
+      <c r="E62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3494,23 +3411,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="2" t="s">
+      <c r="E63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3521,23 +3437,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="2" t="s">
+      <c r="E64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3548,23 +3463,22 @@
         <v>22</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F65" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="2" t="s">
+      <c r="H65" s="7"/>
+      <c r="I65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3575,23 +3489,22 @@
         <v>25</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="2" t="s">
+      <c r="E66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3602,23 +3515,22 @@
         <v>25</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="2" t="s">
+      <c r="E67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3629,23 +3541,22 @@
         <v>25</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="2" t="s">
+      <c r="E68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3656,23 +3567,22 @@
         <v>25</v>
       </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="2" t="s">
+      <c r="E69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3683,23 +3593,22 @@
         <v>25</v>
       </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="2" t="s">
+      <c r="E70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3710,23 +3619,22 @@
         <v>25</v>
       </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="2" t="s">
+      <c r="E71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3737,23 +3645,22 @@
         <v>25</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="2" t="s">
+      <c r="E72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3764,23 +3671,22 @@
         <v>25</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="2" t="s">
+      <c r="E73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -3791,23 +3697,22 @@
         <v>25</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="2" t="s">
+      <c r="E74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3818,23 +3723,22 @@
         <v>25</v>
       </c>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="2" t="s">
+      <c r="E75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3845,23 +3749,22 @@
         <v>25</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="2" t="s">
+      <c r="E76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -3872,23 +3775,22 @@
         <v>25</v>
       </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="7"/>
-      <c r="J77" s="2" t="s">
+      <c r="E77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -3899,23 +3801,22 @@
         <v>25</v>
       </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="2" t="s">
+      <c r="E78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3926,23 +3827,22 @@
         <v>25</v>
       </c>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="7"/>
-      <c r="J79" s="2" t="s">
+      <c r="E79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3953,23 +3853,22 @@
         <v>25</v>
       </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="7"/>
-      <c r="J80" s="2" t="s">
+      <c r="E80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3980,23 +3879,22 @@
         <v>25</v>
       </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="7"/>
-      <c r="J81" s="2" t="s">
+      <c r="E81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4007,23 +3905,22 @@
         <v>25</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" s="7"/>
-      <c r="J82" s="2" t="s">
+      <c r="E82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4034,23 +3931,22 @@
         <v>25</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="2" t="s">
+      <c r="E83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4061,23 +3957,22 @@
         <v>25</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="2" t="s">
+      <c r="E84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4088,23 +3983,22 @@
         <v>25</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="2" t="s">
+      <c r="E85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4115,23 +4009,22 @@
         <v>25</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="7"/>
-      <c r="J86" s="2" t="s">
+      <c r="E86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4141,26 +4034,25 @@
       <c r="C87" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="11"/>
-      <c r="J87" s="2" t="s">
+      <c r="E87" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4170,26 +4062,25 @@
       <c r="C88" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="2" t="s">
+      <c r="E88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4199,28 +4090,27 @@
       <c r="C89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="12" t="s">
+      <c r="E89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4230,26 +4120,25 @@
       <c r="C90" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="2" t="s">
+      <c r="E90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4259,26 +4148,25 @@
       <c r="C91" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="11"/>
-      <c r="J91" s="2" t="s">
+      <c r="E91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -4288,26 +4176,25 @@
       <c r="C92" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="11"/>
-      <c r="J92" s="2" t="s">
+      <c r="E92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -4317,26 +4204,25 @@
       <c r="C93" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="11"/>
-      <c r="J93" s="2" t="s">
+      <c r="E93" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -4347,23 +4233,22 @@
         <v>113</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="7"/>
-      <c r="J94" s="2" t="s">
+      <c r="E94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -4374,23 +4259,22 @@
         <v>113</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I95" s="7"/>
-      <c r="J95" s="2" t="s">
+      <c r="E95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -4400,26 +4284,25 @@
       <c r="C96" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="11"/>
-      <c r="J96" s="2" t="s">
+      <c r="E96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -4429,26 +4312,25 @@
       <c r="C97" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="11"/>
-      <c r="J97" s="2" t="s">
+      <c r="E97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -4458,26 +4340,25 @@
       <c r="C98" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="7"/>
-      <c r="J98" s="2" t="s">
+      <c r="E98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -4487,26 +4368,25 @@
       <c r="C99" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="11"/>
-      <c r="J99" s="2" t="s">
+      <c r="E99" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -4516,26 +4396,25 @@
       <c r="C100" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="2" t="s">
+      <c r="E100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -4545,28 +4424,27 @@
       <c r="C101" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="10" t="s">
+      <c r="E101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -4576,26 +4454,25 @@
       <c r="C102" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="11"/>
-      <c r="J102" s="2" t="s">
+      <c r="E102" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -4605,26 +4482,25 @@
       <c r="C103" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="11"/>
-      <c r="J103" s="2" t="s">
+      <c r="E103" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -4635,23 +4511,22 @@
         <v>113</v>
       </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" s="7"/>
-      <c r="J104" s="2" t="s">
+      <c r="E104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -4662,22 +4537,21 @@
         <v>19</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F105" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -4687,26 +4561,25 @@
       <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E106" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F106" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H106" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I106" s="13"/>
-      <c r="J106" s="5" t="s">
+      <c r="H106" s="13"/>
+      <c r="I106" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -4716,37 +4589,36 @@
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="E107" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F107" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" s="13"/>
-      <c r="J107" s="5" t="s">
+      <c r="H107" s="13"/>
+      <c r="I107" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="K107" t="s">
+        <v>296</v>
+      </c>
       <c r="L107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M107" t="s">
-        <v>297</v>
-      </c>
-      <c r="N107" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -4756,37 +4628,36 @@
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="E108" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F108" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" s="13"/>
-      <c r="J108" t="s">
+      <c r="H108" s="13"/>
+      <c r="I108" t="s">
         <v>130</v>
       </c>
-      <c r="L108" s="13" t="s">
+      <c r="K108" s="13" t="s">
         <v>296</v>
       </c>
+      <c r="L108" t="s">
+        <v>297</v>
+      </c>
       <c r="M108" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N108" t="s">
-        <v>283</v>
-      </c>
-      <c r="O108" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -4796,37 +4667,36 @@
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="E109" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F109" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H109" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" s="13"/>
-      <c r="J109" t="s">
+      <c r="H109" s="13"/>
+      <c r="I109" t="s">
         <v>131</v>
       </c>
-      <c r="L109" s="13" t="s">
+      <c r="K109" s="13" t="s">
         <v>296</v>
       </c>
+      <c r="L109" t="s">
+        <v>297</v>
+      </c>
       <c r="M109" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N109" t="s">
-        <v>283</v>
-      </c>
-      <c r="O109" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -4836,37 +4706,36 @@
       <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="E110" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F110" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H110" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="13"/>
-      <c r="J110" t="s">
+      <c r="H110" s="13"/>
+      <c r="I110" t="s">
         <v>132</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="K110" t="s">
+        <v>296</v>
+      </c>
       <c r="L110" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M110" t="s">
-        <v>297</v>
-      </c>
-      <c r="N110" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -4876,37 +4745,36 @@
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="E111" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F111" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H111" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="13"/>
-      <c r="J111" t="s">
+      <c r="H111" s="13"/>
+      <c r="I111" t="s">
         <v>133</v>
       </c>
-      <c r="L111" s="13" t="s">
+      <c r="K111" s="13" t="s">
         <v>296</v>
       </c>
+      <c r="L111" t="s">
+        <v>297</v>
+      </c>
       <c r="M111" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N111" t="s">
-        <v>283</v>
-      </c>
-      <c r="O111" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -4916,25 +4784,24 @@
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E112" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F112" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H112" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="13"/>
-      <c r="J112" t="s">
+      <c r="H112" s="13"/>
+      <c r="I112" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -4944,25 +4811,24 @@
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E113" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F113" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H113" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="13"/>
-      <c r="J113" t="s">
+      <c r="H113" s="13"/>
+      <c r="I113" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -4972,37 +4838,36 @@
       <c r="C114" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="E114" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F114" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H114" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" s="13"/>
-      <c r="J114" t="s">
+      <c r="H114" s="13"/>
+      <c r="I114" t="s">
         <v>136</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="K114" t="s">
+        <v>296</v>
+      </c>
       <c r="L114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M114" t="s">
-        <v>297</v>
-      </c>
-      <c r="N114" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -5012,25 +4877,24 @@
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E115" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F115" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H115" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="13"/>
-      <c r="J115" t="s">
+      <c r="H115" s="13"/>
+      <c r="I115" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -5040,25 +4904,24 @@
       <c r="C116" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E116" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F116" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H116" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="13"/>
-      <c r="J116" t="s">
+      <c r="H116" s="13"/>
+      <c r="I116" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -5068,37 +4931,36 @@
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="E117" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F117" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H117" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" s="13"/>
-      <c r="J117" t="s">
+      <c r="H117" s="13"/>
+      <c r="I117" t="s">
         <v>139</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="K117" t="s">
+        <v>296</v>
+      </c>
       <c r="L117" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M117" t="s">
-        <v>297</v>
-      </c>
-      <c r="N117" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -5108,25 +4970,24 @@
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E118" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F118" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H118" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="13"/>
-      <c r="J118" t="s">
+      <c r="H118" s="13"/>
+      <c r="I118" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -5136,25 +4997,24 @@
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E119" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F119" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H119" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" s="13"/>
-      <c r="J119" t="s">
+      <c r="H119" s="13"/>
+      <c r="I119" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -5164,25 +5024,24 @@
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E120" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F120" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H120" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="13"/>
-      <c r="J120" t="s">
+      <c r="H120" s="13"/>
+      <c r="I120" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -5192,37 +5051,36 @@
       <c r="C121" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F121" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" s="13"/>
-      <c r="J121" t="s">
+      <c r="E121" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="13"/>
+      <c r="I121" t="s">
         <v>143</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="K121" t="s">
+        <v>296</v>
+      </c>
       <c r="L121" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M121" t="s">
-        <v>297</v>
-      </c>
-      <c r="N121" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -5233,24 +5091,23 @@
         <v>19</v>
       </c>
       <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="10" t="s">
+      <c r="E122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="G122" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H122" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J122" t="s">
+      <c r="I122" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -5261,24 +5118,23 @@
         <v>19</v>
       </c>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="10" t="s">
+      <c r="E123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="G123" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H123" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J123" t="s">
+      <c r="I123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -5289,24 +5145,23 @@
         <v>19</v>
       </c>
       <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="10" t="s">
+      <c r="E124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="G124" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H124" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J124" t="s">
+      <c r="I124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -5317,24 +5172,23 @@
         <v>19</v>
       </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="10" t="s">
+      <c r="E125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="G125" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H125" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J125" t="s">
+      <c r="I125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -5345,24 +5199,23 @@
         <v>19</v>
       </c>
       <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="10" t="s">
+      <c r="E126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="G126" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H126" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J126" t="s">
+      <c r="I126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -5373,22 +5226,21 @@
         <v>25</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I127" s="7"/>
-      <c r="J127" t="s">
+      <c r="E127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -5399,22 +5251,21 @@
         <v>25</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" s="7"/>
-      <c r="J128" t="s">
+      <c r="E128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" s="7"/>
+      <c r="I128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -5425,21 +5276,20 @@
         <v>113</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J129" t="s">
+      <c r="E129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -5450,21 +5300,20 @@
         <v>113</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J130" t="s">
+      <c r="E130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -5475,24 +5324,23 @@
         <v>113</v>
       </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="10" t="s">
+      <c r="E131" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="G131" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H131" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I131" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J131" t="s">
+      <c r="I131" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -5503,24 +5351,23 @@
         <v>113</v>
       </c>
       <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="10" t="s">
+      <c r="E132" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="G132" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="H132" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I132" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J132" t="s">
+      <c r="I132" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -5531,21 +5378,20 @@
         <v>113</v>
       </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J133" t="s">
+      <c r="E133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -5556,21 +5402,20 @@
         <v>113</v>
       </c>
       <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J134" t="s">
+      <c r="E134" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -5580,31 +5425,30 @@
       <c r="C135" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="E135" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F135" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H135" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I135" s="13"/>
-      <c r="J135" t="s">
+      <c r="H135" s="13"/>
+      <c r="I135" t="s">
         <v>160</v>
       </c>
-      <c r="K135" s="13" t="s">
+      <c r="J135" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="L135" t="s">
+      <c r="K135" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -5615,21 +5459,20 @@
         <v>19</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F136" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J136" t="s">
+      <c r="I136" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -5640,21 +5483,20 @@
         <v>19</v>
       </c>
       <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H137" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J137" t="s">
+      <c r="I137" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -5665,21 +5507,20 @@
         <v>19</v>
       </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F138" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H138" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J138" t="s">
+      <c r="I138" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -5690,21 +5531,20 @@
         <v>19</v>
       </c>
       <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F139" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J139" t="s">
+      <c r="I139" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -5715,21 +5555,20 @@
         <v>19</v>
       </c>
       <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F140" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J140" t="s">
+      <c r="I140" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -5740,21 +5579,20 @@
         <v>19</v>
       </c>
       <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F141" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J141" t="s">
+      <c r="I141" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -5765,21 +5603,20 @@
         <v>19</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J142" t="s">
+      <c r="E142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -5790,21 +5627,20 @@
         <v>19</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J143" t="s">
+      <c r="E143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -5815,21 +5651,20 @@
         <v>19</v>
       </c>
       <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J144" t="s">
+      <c r="E144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -5840,21 +5675,20 @@
         <v>19</v>
       </c>
       <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J145" t="s">
+      <c r="E145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -5865,21 +5699,20 @@
         <v>19</v>
       </c>
       <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J146" t="s">
+      <c r="E146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -5890,22 +5723,21 @@
         <v>19</v>
       </c>
       <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="E147" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F147" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H147" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I147" s="7"/>
-      <c r="J147" t="s">
+      <c r="H147" s="7"/>
+      <c r="I147" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -5915,25 +5747,24 @@
       <c r="C148" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E148" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="F148" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H148" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I148" s="11"/>
-      <c r="J148" t="s">
+      <c r="H148" s="11"/>
+      <c r="I148" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -5944,23 +5775,22 @@
         <v>9</v>
       </c>
       <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149" s="7"/>
-      <c r="J149" s="2" t="s">
+      <c r="E149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" s="7"/>
+      <c r="I149" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -5971,23 +5801,22 @@
         <v>25</v>
       </c>
       <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I150" s="7"/>
-      <c r="J150" s="2" t="s">
+      <c r="E150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" s="7"/>
+      <c r="I150" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -5998,23 +5827,22 @@
         <v>9</v>
       </c>
       <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I151" s="7"/>
-      <c r="J151" s="2" t="s">
+      <c r="E151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="7"/>
+      <c r="I151" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -6025,23 +5853,22 @@
         <v>25</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I152" s="7"/>
-      <c r="J152" s="2" t="s">
+      <c r="E152" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H152" s="7"/>
+      <c r="I152" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -6052,23 +5879,22 @@
         <v>113</v>
       </c>
       <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I153" s="7"/>
-      <c r="J153" s="2" t="s">
+      <c r="E153" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H153" s="7"/>
+      <c r="I153" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -6079,23 +5905,22 @@
         <v>25</v>
       </c>
       <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I154" s="7"/>
-      <c r="J154" s="2" t="s">
+      <c r="E154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H154" s="7"/>
+      <c r="I154" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -6106,23 +5931,22 @@
         <v>25</v>
       </c>
       <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I155" s="7"/>
-      <c r="J155" s="2" t="s">
+      <c r="E155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155" s="7"/>
+      <c r="I155" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -6133,23 +5957,22 @@
         <v>25</v>
       </c>
       <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I156" s="7"/>
-      <c r="J156" s="2" t="s">
+      <c r="E156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156" s="7"/>
+      <c r="I156" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -6160,23 +5983,22 @@
         <v>22</v>
       </c>
       <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I157" s="7"/>
-      <c r="J157" s="2" t="s">
+      <c r="E157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H157" s="7"/>
+      <c r="I157" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -6187,23 +6009,22 @@
         <v>113</v>
       </c>
       <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I158" s="7"/>
-      <c r="J158" s="2" t="s">
+      <c r="E158" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158" s="7"/>
+      <c r="I158" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -6214,23 +6035,22 @@
         <v>25</v>
       </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="E159" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F159" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H159" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I159" s="7"/>
-      <c r="J159" s="2" t="s">
+      <c r="H159" s="7"/>
+      <c r="I159" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -6241,23 +6061,22 @@
         <v>22</v>
       </c>
       <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
+      <c r="E160" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F160" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H160" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I160" s="7"/>
-      <c r="J160" s="2" t="s">
+      <c r="H160" s="7"/>
+      <c r="I160" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -6268,23 +6087,22 @@
         <v>9</v>
       </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I161" s="7"/>
-      <c r="J161" s="2" t="s">
+      <c r="E161" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161" s="7"/>
+      <c r="I161" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K161" s="2"/>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -6295,23 +6113,22 @@
         <v>22</v>
       </c>
       <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I162" s="7"/>
-      <c r="J162" s="2" t="s">
+      <c r="E162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" s="7"/>
+      <c r="I162" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K162" s="2"/>
-    </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -6322,23 +6139,22 @@
         <v>9</v>
       </c>
       <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I163" s="7"/>
-      <c r="J163" s="2" t="s">
+      <c r="E163" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H163" s="7"/>
+      <c r="I163" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K163" s="2"/>
-    </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -6349,23 +6165,22 @@
         <v>25</v>
       </c>
       <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I164" s="7"/>
-      <c r="J164" s="2" t="s">
+      <c r="E164" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" s="7"/>
+      <c r="I164" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -6376,23 +6191,22 @@
         <v>25</v>
       </c>
       <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I165" s="7"/>
-      <c r="J165" s="2" t="s">
+      <c r="E165" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="7"/>
+      <c r="I165" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K165" s="2"/>
-    </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -6403,23 +6217,22 @@
         <v>22</v>
       </c>
       <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I166" s="7"/>
-      <c r="J166" s="2" t="s">
+      <c r="E166" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H166" s="7"/>
+      <c r="I166" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K166" s="2"/>
-    </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -6430,23 +6243,22 @@
         <v>25</v>
       </c>
       <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I167" s="7"/>
-      <c r="J167" s="4" t="s">
+      <c r="E167" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" s="7"/>
+      <c r="I167" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K167" s="4"/>
-    </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -6457,23 +6269,22 @@
         <v>25</v>
       </c>
       <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
+      <c r="E168" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F168" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H168" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I168" s="7"/>
-      <c r="J168" s="4" t="s">
+      <c r="H168" s="7"/>
+      <c r="I168" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="K168" s="4"/>
-    </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J168" s="4"/>
+    </row>
+    <row r="169" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -6484,25 +6295,24 @@
         <v>113</v>
       </c>
       <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F169" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H169" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I169" s="7"/>
-      <c r="J169" s="5" t="s">
+      <c r="H169" s="7"/>
+      <c r="I169" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="K169" s="5"/>
+      <c r="J169" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J169" xr:uid="{643EF772-1D6D-4FBD-A286-566D9586DEDE}">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:I169" xr:uid="{643EF772-1D6D-4FBD-A286-566D9586DEDE}">
+    <filterColumn colId="3">
       <filters>
         <filter val="Schematron Data Check Fase"/>
         <filter val="Schematron Data Check Verplichte waardes"/>
@@ -6519,6 +6329,11 @@
         <filter val="XSD + Schematron Datacheck Verplichte Waardes"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Ja"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Ja"/>
@@ -6529,16 +6344,11 @@
         <filter val="Ja"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Ja"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J148">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I148">
       <sortCondition ref="A1:A169"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:J171">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:I171">
     <sortCondition ref="B1:B171"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6553,14 +6363,14 @@
       <selection activeCell="B2" sqref="B2:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
@@ -6571,7 +6381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
@@ -6582,7 +6392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
@@ -6593,7 +6403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
@@ -6604,7 +6414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
@@ -6615,7 +6425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>42</v>
       </c>
@@ -6626,7 +6436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>53</v>
       </c>
@@ -6637,7 +6447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
@@ -6648,7 +6458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>53</v>
       </c>
@@ -6659,7 +6469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>53</v>
       </c>
@@ -6670,7 +6480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>53</v>
       </c>
@@ -6681,7 +6491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>112</v>
       </c>
@@ -6692,7 +6502,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>112</v>
       </c>
@@ -6703,7 +6513,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>112</v>
       </c>
@@ -6714,7 +6524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>112</v>
       </c>
@@ -6725,7 +6535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>112</v>
       </c>
@@ -6736,7 +6546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>116</v>
       </c>
@@ -6747,7 +6557,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>116</v>
       </c>
@@ -6758,7 +6568,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>116</v>
       </c>
@@ -6769,7 +6579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>116</v>
       </c>
@@ -6780,7 +6590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>116</v>
       </c>
@@ -6791,7 +6601,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="48" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
         <v>116</v>
       </c>
@@ -6802,7 +6612,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>116</v>
       </c>
@@ -6813,7 +6623,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
         <v>126</v>
       </c>
@@ -6824,7 +6634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
         <v>126</v>
       </c>
@@ -6835,7 +6645,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
         <v>126</v>
       </c>
@@ -6846,7 +6656,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
         <v>126</v>
       </c>
@@ -6857,7 +6667,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
         <v>126</v>
       </c>
@@ -6868,7 +6678,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
         <v>126</v>
       </c>
@@ -6879,7 +6689,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
         <v>126</v>
       </c>
@@ -6890,7 +6700,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
         <v>126</v>
       </c>
@@ -6901,7 +6711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
         <v>126</v>
       </c>
@@ -6912,7 +6722,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
         <v>126</v>
       </c>
@@ -6923,7 +6733,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
         <v>126</v>
       </c>
@@ -6934,7 +6744,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
         <v>126</v>
       </c>
@@ -6945,7 +6755,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
         <v>126</v>
       </c>
@@ -6956,7 +6766,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>126</v>
       </c>
@@ -6967,7 +6777,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>126</v>
       </c>
@@ -6978,7 +6788,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>126</v>
       </c>
@@ -6989,7 +6799,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>126</v>
       </c>
@@ -7000,7 +6810,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
         <v>126</v>
       </c>
@@ -7024,14 +6834,14 @@
       <selection activeCell="E4" sqref="E4:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>252</v>
       </c>
@@ -7045,7 +6855,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
         <v>214</v>
       </c>
@@ -7057,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
         <v>215</v>
       </c>
@@ -7071,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>216</v>
       </c>
@@ -7083,7 +6893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>217</v>
       </c>
@@ -7098,7 +6908,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
         <v>218</v>
       </c>
@@ -7112,7 +6922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>219</v>
       </c>
@@ -7126,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>220</v>
       </c>
@@ -7140,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
         <v>221</v>
       </c>
@@ -7154,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
         <v>222</v>
       </c>
@@ -7168,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>223</v>
       </c>
@@ -7182,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>224</v>
       </c>
@@ -7196,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>225</v>
       </c>
@@ -7208,7 +7018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>226</v>
       </c>
@@ -7220,7 +7030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
         <v>227</v>
       </c>
@@ -7232,7 +7042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
         <v>228</v>
       </c>
@@ -7242,7 +7052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>229</v>
       </c>
@@ -7254,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>230</v>
       </c>
@@ -7264,7 +7074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
         <v>231</v>
       </c>
@@ -7276,7 +7086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E22" s="21">
         <f>SUM(E4:E21)</f>
         <v>39</v>
@@ -7295,15 +7105,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>256</v>
       </c>
@@ -7317,7 +7127,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>258</v>
       </c>
@@ -7331,13 +7141,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="41"/>
       <c r="C4" s="38"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="2:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="39"/>
       <c r="D5" s="29" t="s">
@@ -7345,7 +7155,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="2:5" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>262</v>
       </c>
@@ -7359,7 +7169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>265</v>
       </c>
@@ -7373,13 +7183,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="41"/>
       <c r="C8" s="28"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="2:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="29" t="s">
         <v>267</v>
@@ -7387,7 +7197,7 @@
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
         <v>269</v>
       </c>
@@ -7401,13 +7211,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="41"/>
       <c r="C11" s="33"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="2:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="31" t="s">
         <v>271</v>
@@ -7415,7 +7225,7 @@
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="2:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>273</v>
       </c>
@@ -7429,13 +7239,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="41"/>
       <c r="C14" s="28"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="2:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="29" t="s">
         <v>275</v>
@@ -7443,7 +7253,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
     </row>
-    <row r="16" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>277</v>
       </c>
@@ -7457,7 +7267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17">
         <f>SUM(E3:E16)</f>
         <v>25</v>
@@ -7487,12 +7297,12 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M2" s="35">
         <f>110*8</f>
         <v>880</v>
@@ -7502,7 +7312,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -7534,7 +7344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -7553,7 +7363,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -7572,7 +7382,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>265</v>
       </c>
@@ -7588,7 +7398,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>269</v>
       </c>
@@ -7607,7 +7417,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>273</v>
       </c>
@@ -7623,7 +7433,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>277</v>
       </c>
@@ -7678,7 +7488,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -7705,7 +7515,7 @@
         <v>34320</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -7713,7 +7523,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L12">
         <f>SUM(L4:L10)</f>
         <v>65</v>
@@ -7729,12 +7539,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acf3efd9-cbc4-4eb2-b951-8c737955431f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="271b1742-4cdc-4417-bbf3-545f32d43098" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7945,20 +7757,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acf3efd9-cbc4-4eb2-b951-8c737955431f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="271b1742-4cdc-4417-bbf3-545f32d43098" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEAB1E7-A8CB-4492-9F72-294C566A73C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8C6560-130D-426C-B0C0-4333DE5A694A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="acf3efd9-cbc4-4eb2-b951-8c737955431f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="271b1742-4cdc-4417-bbf3-545f32d43098"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7983,18 +7802,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8C6560-130D-426C-B0C0-4333DE5A694A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEAB1E7-A8CB-4492-9F72-294C566A73C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="acf3efd9-cbc4-4eb2-b951-8c737955431f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="271b1742-4cdc-4417-bbf3-545f32d43098"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
